--- a/Messageing API検討.xlsx
+++ b/Messageing API検討.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7005bd8fbdbe09f/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\line-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{3B580BBE-73B0-4F43-91DF-7E0468F5111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B868E10-EFD3-4210-9252-FC15E87FEBFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC51C53-8B19-4420-9F4A-BA2D902DA5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{6D9B6CA3-2DA8-4AD2-82D4-CC1DAE975FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,56 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>応答メッセージは、ユーザーがLINE公式アカウントを友だち追加したり、LINE公式アカウントにメッセージを送ったりなど、ユーザーのアクションに応答するためのメッセージです。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>任意のタイミングでユーザーに送信できるメッセージです。以下のいずれかの方法で送信できます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送信方法</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>プッシュメッセージ</t>
-  </si>
-  <si>
-    <t>ユーザー、グループ、トークルームを指定してメッセージを送信します。たとえば、ショッピングサイトで商品を購入したユーザーに対して、商品の発送を通知する場合に使用します。</t>
-  </si>
-  <si>
-    <t>マルチキャストメッセージ</t>
-  </si>
-  <si>
-    <t>複数のユーザーIDに対して、同じメッセージを効率よく送信します。たとえば、ショッピングサイトを利用したことがあるユーザーに対して、新機能を一斉に通知する場合に使用します。</t>
-  </si>
-  <si>
-    <t>ナローキャストメッセージ</t>
-  </si>
-  <si>
-    <t>複数のユーザーに対して、同じメッセージを送信します。送信対象は、属性情報（性別や年齢、OSの種類、地域など）やリターゲティング（オーディエンス）を利用して指定します。</t>
-  </si>
-  <si>
-    <t>ブロードキャストメッセージ</t>
-  </si>
-  <si>
-    <t>LINE公式アカウントと友だちになっているすべてのユーザーに、同じメッセージを送信します。</t>
-  </si>
-  <si>
-    <t>Lambdaにトリガーを追加して、応答トークン無しでメッセージを送信できる。</t>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ソウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -108,6 +66,425 @@
   </si>
   <si>
     <t>Messaging APIでできること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プッシュメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マルチキャストメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ナローキャストメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロードキャストメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①テキストメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②スタンプメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③画像メッセージ</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④動画メッセージ</t>
+    <rPh sb="1" eb="3">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤音声メッセージ</t>
+    <rPh sb="1" eb="3">
+      <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥位置情報</t>
+    <rPh sb="1" eb="5">
+      <t>イチジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦イメージマップメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、画像の上で動画を再生したり、動画再生後にリンク先を設定したラベルを表示したりできます。</t>
+  </si>
+  <si>
+    <t>イメージマップメッセージは、複数のタップ領域を設定した画像を送信できるメッセージです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがタップ領域をタップすることで、特定のウェブページにアクセスしたり、ユーザーからメッセージを送信したりできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したURLに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>指定したメッセージをLinebotに送信する</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧テンプレートメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートメッセージは、あらかじめレイアウトが定義されたテンプレートをカスタマイズして構築するメッセージです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のタイプのテンプレートを利用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>カルーセル</t>
+  </si>
+  <si>
+    <t>・ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カルーセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画像カルーセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developers.line.biz/ja/reference/messaging-api/#action-objects</t>
+  </si>
+  <si>
+    <t>ポストバックアクション</t>
+  </si>
+  <si>
+    <t>メッセージアクション</t>
+  </si>
+  <si>
+    <t>URIアクション</t>
+  </si>
+  <si>
+    <t>日時選択アクション</t>
+  </si>
+  <si>
+    <t>カメラアクション</t>
+  </si>
+  <si>
+    <t>カメラロールアクション</t>
+  </si>
+  <si>
+    <t>位置情報アクション</t>
+  </si>
+  <si>
+    <t>リッチメニュー切替アクション</t>
+  </si>
+  <si>
+    <t>各ボタンそれぞれに以下のアクションを設定できる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つのアクションボタンを表示するテンプレートです。</t>
+  </si>
+  <si>
+    <t>画像、タイトル、テキストに加えて、複数のアクションボタンが含まれたテンプレートです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のカラムを表示するテンプレートです。カラムは横にスクロールして順番に表示できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の画像を表示するテンプレートです。画像は横にスクロールして順番に表示できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像がタップされたときのアクションを定義できる</t>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像カルーセル</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨Flex Message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flex Messageは、CSS Flexible Box（CSS Flexbox）の基礎知識を使って、レイアウトを自由にカスタマイズできるメッセージです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナ</t>
+  </si>
+  <si>
+    <t>バブル</t>
+  </si>
+  <si>
+    <t>コンポーネント</t>
+  </si>
+  <si>
+    <t>ボックス</t>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>動画</t>
+  </si>
+  <si>
+    <t>アイコン</t>
+  </si>
+  <si>
+    <t>テキスト</t>
+  </si>
+  <si>
+    <t>スパン</t>
+  </si>
+  <si>
+    <t>セパレータ</t>
+  </si>
+  <si>
+    <t>フィラー</t>
+  </si>
+  <si>
+    <t>奥が深そうなので、後ほど調査・・・</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．ユーザーが送ったコンテンツを取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが送った画像、動画、音声、およびファイルを取得できます。ユーザーが送ったコンテンツは一定期間後、自動的に削除されることに注意してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他：クイックリプライ</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックリプライボタンを設定したメッセージを送信すると、メッセージのほかに、トーク画面の下部にそれらのボタンが表示されます。ユーザーはボタンをタップするだけで、ボットからのメッセージに簡単に返信できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developers.line.biz/ja/docs/messaging-api/using-quick-reply/#using-quick-reply-introduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５．ユーザープロフィールを取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対1のトークやグループトークでLINE公式アカウントと対話するLINEユーザーの情報を取得できます。取得できるLINEユーザー情報は、ユーザー名、プロフィール画像、ステータスメッセージの3つです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６．グループトークに参加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７．リッチメニューを使う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リッチメニューはカスタマイズできるメニューで、ユーザーがどのようにLINE公式アカウントと対話できるか理解するのに役立ちます。ユーザーはいつでもトーク画面からこのメニューにアクセスできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループトークにメッセージを送信して、参加メンバーの情報を取得できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developers.line.biz/ja/docs/messaging-api/using-rich-menus/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８．ビーコンを使う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE Beaconを使用して、ユーザーがビーコンの電波の受信圏に入ったときにLINE公式アカウントがユーザーとどう対話するか設定することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９．アカウント連携を使う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント連携機能を使うと、プロバイダー（企業や開発者）が提供するサービスの既存のユーザーアカウントを、LINE公式アカウントと友だちになっているLINEユーザーのアカウントとセキュアに連携できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developers.line.biz/ja/docs/messaging-api/linking-accounts/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０．送信メッセージ数を取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作により取得される値はMessaging APIを使って送信されるメッセージの数で、LINE Official Account Managerから送信されるメッセージの数は含まれません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒分析で使うAPIなので、調査対象外</t>
+    <rPh sb="1" eb="3">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒使用用途が検討付かないため、対象外</t>
+    <rPh sb="1" eb="5">
+      <t>シヨウヨウト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒1対1でのやり取りがメインのため対象外</t>
+    <rPh sb="2" eb="3">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・検証に使用した構成は以下の通り。</t>
+    <rPh sb="1" eb="3">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・作成したLINE公式アカウントは以下の通り</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -115,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,16 +526,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -166,45 +566,46 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,15 +625,103 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101792</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>12911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480F49AE-5D28-4DB0-BC2E-E7B5345703D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="18935700"/>
+          <a:ext cx="3733992" cy="4108661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406633</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>222379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D707C4-909D-460C-9A1A-728D8EDD5993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="15036800"/>
+          <a:ext cx="4540483" cy="2502029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3251464</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108214</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -249,7 +738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -262,6 +751,923 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57341</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEB50DF-094D-434A-839A-911CE273EE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="5168900"/>
+          <a:ext cx="3714941" cy="1447874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336779</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0FB36E-6E1F-449A-9E17-4D6F55628B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="7912100"/>
+          <a:ext cx="4451579" cy="1390721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>432034</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>31846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D276A-48D2-46A2-A943-B35343F6C827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="6997700"/>
+          <a:ext cx="4546834" cy="1860646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>362180</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9C73EC-2D37-4089-BE5E-567906783238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="12515850"/>
+          <a:ext cx="4476980" cy="1866996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A7B5DD-E55F-4556-B179-72B178D2AB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="13112750"/>
+          <a:ext cx="2095500" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42179B9-1F3E-4F21-8E41-5FA2928F9A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="13106400"/>
+          <a:ext cx="2095500" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8345A000-5152-491C-A354-A533F342D04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1638300" y="14077950"/>
+          <a:ext cx="387350" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62BB94A-C416-483D-8E2E-E7A5EE0093AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159250" y="14071600"/>
+          <a:ext cx="323850" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE09D11-5EDA-4D74-BF59-6A6DC256B9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1784350" y="21818600"/>
+          <a:ext cx="2495550" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA353735-CA1A-4BA9-8B14-DE8EF12B8D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2730500" y="23025100"/>
+          <a:ext cx="301625" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95443</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>82</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F94E7C-1E35-4B88-A3F7-EA42CA81EDC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="26003250"/>
+          <a:ext cx="3753043" cy="1600282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171647</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>70089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA5B739-2547-4AEE-812E-B61ECA1FE91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="28746450"/>
+          <a:ext cx="3829247" cy="4642089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101793</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>101840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0640B7B2-29F4-4096-8C7A-0F0800187389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="28746450"/>
+          <a:ext cx="3759393" cy="4673840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63691</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>95455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B71377-CF82-4981-93BA-E672795BE61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="34232850"/>
+          <a:ext cx="3721291" cy="3981655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152596</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>146257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C995CE-7D62-43B7-AC8B-1888A347BA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="34232850"/>
+          <a:ext cx="3810196" cy="4032457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254342</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>216170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E97C3D-2967-442A-A1EE-881E0ED3A4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="39033450"/>
+          <a:ext cx="6655142" cy="5245370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44640</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>127077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC4CC7A-ED1A-4243-B270-7C7EF3BC48E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="45662850"/>
+          <a:ext cx="3702240" cy="1498677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C979B29-7E07-48B8-BE38-7CAC37364720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="457200" y="1060451"/>
+          <a:ext cx="5175250" cy="1587991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -566,96 +1972,739 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A32F5B-2B4C-4C45-8F93-8BA0AA5F1A35}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="6" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="R27"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D169" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C189" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C190" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E193" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D194" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E201" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E202" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E203" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D215" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C217" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C218" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C219" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="227" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B227" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B228" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="230" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B230" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="231" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B231" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="233" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B233" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7"/>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="7"/>
+      <c r="R233" s="7"/>
+      <c r="S233" s="7"/>
+      <c r="T233" s="7"/>
+      <c r="U233" s="7"/>
+      <c r="V233" s="7"/>
+      <c r="W233" s="7"/>
+      <c r="X233" s="7"/>
+      <c r="Y233" s="7"/>
+      <c r="Z233" s="7"/>
+      <c r="AA233" s="7"/>
+      <c r="AB233" s="7"/>
+      <c r="AC233" s="7"/>
+    </row>
+    <row r="234" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B234" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="7"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7"/>
+      <c r="N234" s="7"/>
+      <c r="O234" s="7"/>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="7"/>
+      <c r="R234" s="7"/>
+      <c r="S234" s="7"/>
+      <c r="T234" s="7"/>
+      <c r="U234" s="7"/>
+      <c r="V234" s="7"/>
+      <c r="W234" s="7"/>
+      <c r="X234" s="7"/>
+      <c r="Y234" s="7"/>
+      <c r="Z234" s="7"/>
+      <c r="AA234" s="7"/>
+      <c r="AB234" s="7"/>
+      <c r="AC234" s="7"/>
+    </row>
+    <row r="235" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B235" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
+      <c r="K235" s="7"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="7"/>
+      <c r="N235" s="7"/>
+      <c r="O235" s="7"/>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="7"/>
+      <c r="R235" s="7"/>
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
+      <c r="U235" s="7"/>
+      <c r="V235" s="7"/>
+      <c r="W235" s="7"/>
+      <c r="X235" s="7"/>
+      <c r="Y235" s="7"/>
+      <c r="Z235" s="7"/>
+      <c r="AA235" s="7"/>
+      <c r="AB235" s="7"/>
+      <c r="AC235" s="7"/>
+    </row>
+    <row r="237" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B237" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="238" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B238" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="239" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B239" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="241" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B241" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="7"/>
+      <c r="L241" s="7"/>
+      <c r="M241" s="7"/>
+      <c r="N241" s="7"/>
+      <c r="O241" s="7"/>
+      <c r="P241" s="7"/>
+      <c r="Q241" s="7"/>
+      <c r="R241" s="7"/>
+      <c r="S241" s="7"/>
+      <c r="T241" s="7"/>
+      <c r="U241" s="7"/>
+      <c r="V241" s="7"/>
+      <c r="W241" s="7"/>
+      <c r="X241" s="7"/>
+      <c r="Y241" s="7"/>
+      <c r="Z241" s="7"/>
+      <c r="AA241" s="7"/>
+      <c r="AB241" s="7"/>
+      <c r="AC241" s="7"/>
+    </row>
+    <row r="242" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B242" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="7"/>
+      <c r="N242" s="7"/>
+      <c r="O242" s="7"/>
+      <c r="P242" s="7"/>
+      <c r="Q242" s="7"/>
+      <c r="R242" s="7"/>
+      <c r="S242" s="7"/>
+      <c r="T242" s="7"/>
+      <c r="U242" s="7"/>
+      <c r="V242" s="7"/>
+      <c r="W242" s="7"/>
+      <c r="X242" s="7"/>
+      <c r="Y242" s="7"/>
+      <c r="Z242" s="7"/>
+      <c r="AA242" s="7"/>
+      <c r="AB242" s="7"/>
+      <c r="AC242" s="7"/>
+    </row>
+    <row r="243" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B243" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
+      <c r="M243" s="7"/>
+      <c r="N243" s="7"/>
+      <c r="O243" s="7"/>
+      <c r="P243" s="7"/>
+      <c r="Q243" s="7"/>
+      <c r="R243" s="7"/>
+      <c r="S243" s="7"/>
+      <c r="T243" s="7"/>
+      <c r="U243" s="7"/>
+      <c r="V243" s="7"/>
+      <c r="W243" s="7"/>
+      <c r="X243" s="7"/>
+      <c r="Y243" s="7"/>
+      <c r="Z243" s="7"/>
+      <c r="AA243" s="7"/>
+      <c r="AB243" s="7"/>
+      <c r="AC243" s="7"/>
+    </row>
+    <row r="245" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="247" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B247" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="249" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B249" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="7"/>
+      <c r="J249" s="7"/>
+      <c r="K249" s="7"/>
+      <c r="L249" s="7"/>
+      <c r="M249" s="7"/>
+      <c r="N249" s="7"/>
+      <c r="O249" s="7"/>
+      <c r="P249" s="7"/>
+      <c r="Q249" s="7"/>
+      <c r="R249" s="7"/>
+      <c r="S249" s="7"/>
+      <c r="T249" s="7"/>
+      <c r="U249" s="7"/>
+      <c r="V249" s="7"/>
+      <c r="W249" s="7"/>
+      <c r="X249" s="7"/>
+      <c r="Y249" s="7"/>
+      <c r="Z249" s="7"/>
+      <c r="AA249" s="7"/>
+      <c r="AB249" s="7"/>
+      <c r="AC249" s="7"/>
+    </row>
+    <row r="250" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B250" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="7"/>
+      <c r="J250" s="7"/>
+      <c r="K250" s="7"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="7"/>
+      <c r="N250" s="7"/>
+      <c r="O250" s="7"/>
+      <c r="P250" s="7"/>
+      <c r="Q250" s="7"/>
+      <c r="R250" s="7"/>
+      <c r="S250" s="7"/>
+      <c r="T250" s="7"/>
+      <c r="U250" s="7"/>
+      <c r="V250" s="7"/>
+      <c r="W250" s="7"/>
+      <c r="X250" s="7"/>
+      <c r="Y250" s="7"/>
+      <c r="Z250" s="7"/>
+      <c r="AA250" s="7"/>
+      <c r="AB250" s="7"/>
+      <c r="AC250" s="7"/>
+    </row>
+    <row r="251" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B251" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="7"/>
+      <c r="N251" s="7"/>
+      <c r="O251" s="7"/>
+      <c r="P251" s="7"/>
+      <c r="Q251" s="7"/>
+      <c r="R251" s="7"/>
+      <c r="S251" s="7"/>
+      <c r="T251" s="7"/>
+      <c r="U251" s="7"/>
+      <c r="V251" s="7"/>
+      <c r="W251" s="7"/>
+      <c r="X251" s="7"/>
+      <c r="Y251" s="7"/>
+      <c r="Z251" s="7"/>
+      <c r="AA251" s="7"/>
+      <c r="AB251" s="7"/>
+      <c r="AC251" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C219" r:id="rId1" location="using-quick-reply-introduction" xr:uid="{2BB7D2BD-F12B-4739-AB11-FEFFC7978E78}"/>
+    <hyperlink ref="B239" r:id="rId2" xr:uid="{F2E2792E-92A0-42BF-A7C3-C68C53CF7E98}"/>
+    <hyperlink ref="B247" r:id="rId3" xr:uid="{61A5479B-C9FC-4501-A6B6-B94F5A8C5A44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3D0B4C-D133-42B0-8279-B15E10C3BAAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="69.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Messageing API検討.xlsx
+++ b/Messageing API検討.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\line-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC51C53-8B19-4420-9F4A-BA2D902DA5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8192A7F-C888-4E97-BF29-4F81A1748BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{6D9B6CA3-2DA8-4AD2-82D4-CC1DAE975FDC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{6D9B6CA3-2DA8-4AD2-82D4-CC1DAE975FDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Messagin APIでできること" sheetId="1" r:id="rId1"/>
+    <sheet name="活用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,54 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
-  <si>
-    <t>応答メッセージは、ユーザーがLINE公式アカウントを友だち追加したり、LINE公式アカウントにメッセージを送ったりなど、ユーザーのアクションに応答するためのメッセージです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>任意のタイミングでユーザーに送信できるメッセージです。以下のいずれかの方法で送信できます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．応答メッセージ</t>
-    <rPh sb="2" eb="4">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．プッシュメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．様々なタイプのメッセージを送る</t>
-    <rPh sb="2" eb="4">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Messaging APIでできること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プッシュメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マルチキャストメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ナローキャストメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ブロードキャストメッセージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -128,14 +87,6 @@
     <t>また、画像の上で動画を再生したり、動画再生後にリンク先を設定したラベルを表示したりできます。</t>
   </si>
   <si>
-    <t>イメージマップメッセージは、複数のタップ領域を設定した画像を送信できるメッセージです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーがタップ領域をタップすることで、特定のウェブページにアクセスしたり、ユーザーからメッセージを送信したりできます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定したURLに遷移</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -159,18 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑧テンプレートメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレートメッセージは、あらかじめレイアウトが定義されたテンプレートをカスタマイズして構築するメッセージです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のタイプのテンプレートを利用できます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
   </si>
   <si>
@@ -193,9 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://developers.line.biz/ja/reference/messaging-api/#action-objects</t>
-  </si>
-  <si>
     <t>ポストバックアクション</t>
   </si>
   <si>
@@ -208,29 +144,10 @@
     <t>日時選択アクション</t>
   </si>
   <si>
-    <t>カメラアクション</t>
-  </si>
-  <si>
-    <t>カメラロールアクション</t>
-  </si>
-  <si>
     <t>位置情報アクション</t>
   </si>
   <si>
     <t>リッチメニュー切替アクション</t>
-  </si>
-  <si>
-    <t>各ボタンそれぞれに以下のアクションを設定できる</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2つのアクションボタンを表示するテンプレートです。</t>
@@ -303,34 +220,11 @@
     <t>フィラー</t>
   </si>
   <si>
-    <t>奥が深そうなので、後ほど調査・・・</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>４．ユーザーが送ったコンテンツを取得する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザーが送った画像、動画、音声、およびファイルを取得できます。ユーザーが送ったコンテンツは一定期間後、自動的に削除されることに注意してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他：クイックリプライ</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,18 +366,352 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・作成したLINE公式アカウントは以下の通り</t>
+    <t>・指定URLに遷移させる</t>
     <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像やボタンをタップすると、以下のアクションを起こす。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧テンプレートメッセージ　※PC版では見えない</t>
+    <rPh sb="16" eb="17">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developers.line.biz/ja/reference/messaging-api/#flex-message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>できること</t>
+  </si>
+  <si>
+    <t>Botとの画面にメッセージを送信する</t>
+  </si>
+  <si>
+    <t>日付データ + ポストバックイベントを送る</t>
+  </si>
+  <si>
+    <t>位置情報画面を開く</t>
+  </si>
+  <si>
+    <t>リッチメニューを切り替える</t>
+  </si>
+  <si>
+    <t>webページを表示させる、LIFFアプリを開ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーソナライズ可能</t>
+  </si>
+  <si>
+    <t>API側からユーザーごとにリッチメニューを登録ができる。つまり「画像にユーザー名を入れたり特有の動線を入れることが可能になる」「ボタンを押したアクションをカスタム」などなど幅が広がりました。</t>
+  </si>
+  <si>
+    <t>以下の要素を組み合わせて作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flex Message Simulatorを利用すると簡単に見た目を整えられる。</t>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・言語：Python</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/yuj/items/44080e2d95d962b6ac43</t>
+  </si>
+  <si>
+    <t>１．メッセージを送信する。</t>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①応答メッセージ</t>
+    <rPh sb="1" eb="3">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが友達登録をした時や、メッセージ送信などのユーザーぼアクションに応答する。</t>
+    <rPh sb="5" eb="7">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージの送信方法は以下の2つ</t>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②プッシュメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プッシュメッセージ（1対1）</t>
+  </si>
+  <si>
+    <t>マルチキャストメッセージ（1対多：ユーザーID指定）</t>
+  </si>
+  <si>
+    <t>ナローキャストメッセージ（1対多：絞り込み配信）</t>
+  </si>
+  <si>
+    <t>ブロードキャストメッセージ（1対多：すべての友だち）</t>
+  </si>
+  <si>
+    <t>２．メッセージタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信できるメッセージタイプは以下の9つ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵文字も入れられる</t>
+    <rPh sb="0" eb="3">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のタップ領域を設定した画像を送信できるメッセージです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがタップ領域をタップすることで、以下のアクションを起こす。</t>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・LINEbotに対してメッセージを送信する。</t>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらかじめレイアウトが定義されたテンプレートをカスタマイズして構築するメッセージです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの種類は以下の4つ</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developers.line.biz/flex-simulator/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．メッセージタイプ共通機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①クイックリプライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージマップメッセージ、テンプレートメッセージ、Flex Message、クイックリプライ、リッチメニューで使用できるアクションオブジェクト</t>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポストバックイベントを送る（メッセージアクションと似ているが、メッセーのやり取り無しに処理を行える）</t>
+    <rPh sb="25" eb="26">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例）テンプレートメッセージ（ボタン）のアクションに日時選択アクションを設定</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラアクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE内のカメラが起動します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラロールアクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINEのカメラロール画面が開きます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置情報アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINEの位置情報画面が開きます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：リッチメニュー限定アクション</t>
+    <rPh sb="8" eb="10">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：クイックリプライ限定アクション</t>
     <rPh sb="9" eb="11">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トオ</t>
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MessaginAPIを利用した実装）</t>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・使用したSDK：https://github.com/line/line-bot-sdk-python（Messaging API対応のLINE公式SDK）</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +771,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,13 +802,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -575,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +895,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -627,13 +946,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>101792</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>12911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -671,13 +990,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406633</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>222379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -713,16 +1032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>108214</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19145</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114564</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -745,7 +1064,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="685800"/>
+          <a:off x="920750" y="4260850"/>
           <a:ext cx="5137414" cy="1847945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -759,13 +1078,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57341</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -803,13 +1122,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>336779</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -847,13 +1166,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>432034</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>31846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -891,13 +1210,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>362180</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -935,13 +1254,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1001,13 +1320,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1067,13 +1386,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1125,13 +1444,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1183,13 +1502,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1245,75 +1564,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA353735-CA1A-4BA9-8B14-DE8EF12B8D23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2730500" y="23025100"/>
-          <a:ext cx="301625" cy="222250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95443</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>82</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1351,13 +1612,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171647</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>70089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1395,13 +1656,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>101793</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>101840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1439,13 +1700,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>63691</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>95455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1483,13 +1744,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152596</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>146257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1525,16 +1786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254342</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>216170</xdr:rowOff>
+      <xdr:colOff>25742</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>38370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1557,7 +1818,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="39033450"/>
+          <a:off x="1143000" y="47085250"/>
           <a:ext cx="6655142" cy="5245370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1570,15 +1831,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>127077</xdr:rowOff>
+      <xdr:colOff>50990</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>133427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1601,7 +1862,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="45662850"/>
+          <a:off x="920750" y="57099200"/>
           <a:ext cx="3702240" cy="1498677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1670,6 +1931,915 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB3EAC1-E8E4-4A46-B404-DA09669D6808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4502150" y="22637750"/>
+          <a:ext cx="876300" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="吹き出し: 線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA00AA3-97A3-400E-8E0A-5948B01AE5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="23761700"/>
+          <a:ext cx="876300" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="吹き出し: 線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCFF496-37A3-42CD-864F-EA467C3BA5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="24276050"/>
+          <a:ext cx="876300" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 52206"/>
+            <a:gd name="adj4" fmla="val -39782"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="吹き出し: 線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4496E6-7F45-431F-B6E2-E164C0B55B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4502150" y="24809450"/>
+          <a:ext cx="1752600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 62551"/>
+            <a:gd name="adj4" fmla="val -30362"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複数のアクションボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374813</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>50942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48346FC1-F941-420F-BD1D-20B18BFAA0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1778000" y="23514050"/>
+          <a:ext cx="3168813" cy="2768742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381165</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>6527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8571209D-E9B1-41B5-B6DD-34A1BA5193E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946650" y="24631650"/>
+          <a:ext cx="3206915" cy="3435527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2671D9D-43FE-40B1-876F-71B98FE24A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="57988200"/>
+          <a:ext cx="2495550" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349409</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>177880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BDCF21-218D-4810-95BB-72FBCA300001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="65779650"/>
+          <a:ext cx="3092609" cy="1549480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311307</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>69959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8719AD6-B481-48BF-A719-017557CA64CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="65779650"/>
+          <a:ext cx="3054507" cy="2127359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702263AF-40DA-4677-80D5-CB878576CF73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="69989700"/>
+          <a:ext cx="1504950" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08500905-93EB-49E6-8DAF-1DB492601898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2000250" y="65925700"/>
+          <a:ext cx="4356100" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="吹き出し: 線 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7192088E-BE8E-4EC5-9DD6-DA9784550132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="65417700"/>
+          <a:ext cx="1993900" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 118134"/>
+            <a:gd name="adj4" fmla="val -31327"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージアクション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>126050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35" descr="イメージマップメッセージ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5757A90-B948-4BFA-BB70-0C630F2D85D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9163050" y="17310100"/>
+          <a:ext cx="2901949" cy="5161600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425613</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>25542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFE323D-991E-4017-B41E-812FEF2B1D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="63036450"/>
+          <a:ext cx="3168813" cy="2768742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177965</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>12877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA31249F-A1BB-440E-B407-09CFF89560EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="63042800"/>
+          <a:ext cx="3206915" cy="3435527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDA969D-FD5E-479A-ACA0-6A54FE5610F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="65322450"/>
+          <a:ext cx="2051050" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1972,9 +3142,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A32F5B-2B4C-4C45-8F93-8BA0AA5F1A35}">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1983,714 +3153,926 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R27"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="3" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="4" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O76"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D150" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D173" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D174" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C195" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C196" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C197" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C199" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C200" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C201" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D202" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E203" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E204" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D205" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E206" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E207" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E208" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E209" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E210" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E211" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E214" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B241" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C242" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C243" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C244" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C253" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C254" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="256" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C256" s="5"/>
+      <c r="D256" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J256" s="15"/>
+      <c r="K256" s="15"/>
+      <c r="L256" s="15"/>
+      <c r="M256" s="15"/>
+      <c r="N256" s="15"/>
+      <c r="O256" s="16"/>
+    </row>
+    <row r="257" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D257" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I257" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="258" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D258" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I258" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="259" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D259" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C99" s="2" t="s">
+      <c r="I259" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="260" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D260" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I260" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D261" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C100" s="2" t="s">
+      <c r="I261" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="262" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D262" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D102" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D103" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D123" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D124" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E125" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E126" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E127" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E128" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E129" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E130" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E131" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E132" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D134" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D135" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D144" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D145" s="2" t="s">
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13"/>
+      <c r="H262" s="13"/>
+      <c r="I262" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J262" s="13"/>
+      <c r="K262" s="13"/>
+      <c r="L262" s="13"/>
+      <c r="M262" s="13"/>
+      <c r="N262" s="13"/>
+      <c r="O262" s="13"/>
+    </row>
+    <row r="263" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D263" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+    </row>
+    <row r="264" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D264" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+    </row>
+    <row r="265" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D265" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+    </row>
+    <row r="267" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D267" s="13"/>
+      <c r="E267" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="268" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D268" s="11"/>
+      <c r="E268" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="269" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D269" s="11"/>
+    </row>
+    <row r="270" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D270" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B287" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D159" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D167" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D168" s="2" t="s">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B288" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D169" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C189" s="2" t="s">
+    <row r="290" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B290" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C190" s="2" t="s">
+    <row r="291" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B291" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D191" s="2" t="s">
+    <row r="293" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B293" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E192" s="2" t="s">
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+      <c r="I293" s="7"/>
+      <c r="J293" s="7"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="7"/>
+      <c r="N293" s="7"/>
+      <c r="O293" s="7"/>
+      <c r="P293" s="7"/>
+      <c r="Q293" s="7"/>
+      <c r="R293" s="7"/>
+      <c r="S293" s="7"/>
+      <c r="T293" s="7"/>
+      <c r="U293" s="7"/>
+      <c r="V293" s="7"/>
+      <c r="W293" s="7"/>
+      <c r="X293" s="7"/>
+      <c r="Y293" s="7"/>
+      <c r="Z293" s="7"/>
+      <c r="AA293" s="7"/>
+      <c r="AB293" s="7"/>
+      <c r="AC293" s="7"/>
+    </row>
+    <row r="294" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B294" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="7"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="7"/>
+      <c r="N294" s="7"/>
+      <c r="O294" s="7"/>
+      <c r="P294" s="7"/>
+      <c r="Q294" s="7"/>
+      <c r="R294" s="7"/>
+      <c r="S294" s="7"/>
+      <c r="T294" s="7"/>
+      <c r="U294" s="7"/>
+      <c r="V294" s="7"/>
+      <c r="W294" s="7"/>
+      <c r="X294" s="7"/>
+      <c r="Y294" s="7"/>
+      <c r="Z294" s="7"/>
+      <c r="AA294" s="7"/>
+      <c r="AB294" s="7"/>
+      <c r="AC294" s="7"/>
+    </row>
+    <row r="295" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B295" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+      <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
+      <c r="M295" s="7"/>
+      <c r="N295" s="7"/>
+      <c r="O295" s="7"/>
+      <c r="P295" s="7"/>
+      <c r="Q295" s="7"/>
+      <c r="R295" s="7"/>
+      <c r="S295" s="7"/>
+      <c r="T295" s="7"/>
+      <c r="U295" s="7"/>
+      <c r="V295" s="7"/>
+      <c r="W295" s="7"/>
+      <c r="X295" s="7"/>
+      <c r="Y295" s="7"/>
+      <c r="Z295" s="7"/>
+      <c r="AA295" s="7"/>
+      <c r="AB295" s="7"/>
+      <c r="AC295" s="7"/>
+    </row>
+    <row r="297" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B297" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E193" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D194" s="2" t="s">
+    <row r="298" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B298" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E195" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E196" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E197" s="2" t="s">
+    <row r="299" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B299" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E198" s="2" t="s">
+    <row r="301" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B301" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="302" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B302" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="304" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B304" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="305" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B305" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="316" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B316" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E199" s="2" t="s">
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" s="7"/>
+      <c r="H316" s="7"/>
+      <c r="I316" s="7"/>
+      <c r="J316" s="7"/>
+      <c r="K316" s="7"/>
+      <c r="L316" s="7"/>
+      <c r="M316" s="7"/>
+      <c r="N316" s="7"/>
+      <c r="O316" s="7"/>
+      <c r="P316" s="7"/>
+      <c r="Q316" s="7"/>
+      <c r="R316" s="7"/>
+      <c r="S316" s="7"/>
+      <c r="T316" s="7"/>
+      <c r="U316" s="7"/>
+      <c r="V316" s="7"/>
+      <c r="W316" s="7"/>
+      <c r="X316" s="7"/>
+      <c r="Y316" s="7"/>
+      <c r="Z316" s="7"/>
+      <c r="AA316" s="7"/>
+      <c r="AB316" s="7"/>
+      <c r="AC316" s="7"/>
+    </row>
+    <row r="317" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B317" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E200" s="2" t="s">
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" s="7"/>
+      <c r="H317" s="7"/>
+      <c r="I317" s="7"/>
+      <c r="J317" s="7"/>
+      <c r="K317" s="7"/>
+      <c r="L317" s="7"/>
+      <c r="M317" s="7"/>
+      <c r="N317" s="7"/>
+      <c r="O317" s="7"/>
+      <c r="P317" s="7"/>
+      <c r="Q317" s="7"/>
+      <c r="R317" s="7"/>
+      <c r="S317" s="7"/>
+      <c r="T317" s="7"/>
+      <c r="U317" s="7"/>
+      <c r="V317" s="7"/>
+      <c r="W317" s="7"/>
+      <c r="X317" s="7"/>
+      <c r="Y317" s="7"/>
+      <c r="Z317" s="7"/>
+      <c r="AA317" s="7"/>
+      <c r="AB317" s="7"/>
+      <c r="AC317" s="7"/>
+    </row>
+    <row r="318" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B318" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="7"/>
+      <c r="H318" s="7"/>
+      <c r="I318" s="7"/>
+      <c r="J318" s="7"/>
+      <c r="K318" s="7"/>
+      <c r="L318" s="7"/>
+      <c r="M318" s="7"/>
+      <c r="N318" s="7"/>
+      <c r="O318" s="7"/>
+      <c r="P318" s="7"/>
+      <c r="Q318" s="7"/>
+      <c r="R318" s="7"/>
+      <c r="S318" s="7"/>
+      <c r="T318" s="7"/>
+      <c r="U318" s="7"/>
+      <c r="V318" s="7"/>
+      <c r="W318" s="7"/>
+      <c r="X318" s="7"/>
+      <c r="Y318" s="7"/>
+      <c r="Z318" s="7"/>
+      <c r="AA318" s="7"/>
+      <c r="AB318" s="7"/>
+      <c r="AC318" s="7"/>
+    </row>
+    <row r="320" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B320" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E201" s="2" t="s">
+    <row r="321" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B321" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E202" s="2" t="s">
+    <row r="322" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B322" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E203" s="2" t="s">
+    <row r="324" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B324" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D215" s="2" t="s">
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" s="7"/>
+      <c r="H324" s="7"/>
+      <c r="I324" s="7"/>
+      <c r="J324" s="7"/>
+      <c r="K324" s="7"/>
+      <c r="L324" s="7"/>
+      <c r="M324" s="7"/>
+      <c r="N324" s="7"/>
+      <c r="O324" s="7"/>
+      <c r="P324" s="7"/>
+      <c r="Q324" s="7"/>
+      <c r="R324" s="7"/>
+      <c r="S324" s="7"/>
+      <c r="T324" s="7"/>
+      <c r="U324" s="7"/>
+      <c r="V324" s="7"/>
+      <c r="W324" s="7"/>
+      <c r="X324" s="7"/>
+      <c r="Y324" s="7"/>
+      <c r="Z324" s="7"/>
+      <c r="AA324" s="7"/>
+      <c r="AB324" s="7"/>
+      <c r="AC324" s="7"/>
+    </row>
+    <row r="325" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B325" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C217" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C218" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C219" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="227" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B227" s="3" t="s">
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
+      <c r="G325" s="7"/>
+      <c r="H325" s="7"/>
+      <c r="I325" s="7"/>
+      <c r="J325" s="7"/>
+      <c r="K325" s="7"/>
+      <c r="L325" s="7"/>
+      <c r="M325" s="7"/>
+      <c r="N325" s="7"/>
+      <c r="O325" s="7"/>
+      <c r="P325" s="7"/>
+      <c r="Q325" s="7"/>
+      <c r="R325" s="7"/>
+      <c r="S325" s="7"/>
+      <c r="T325" s="7"/>
+      <c r="U325" s="7"/>
+      <c r="V325" s="7"/>
+      <c r="W325" s="7"/>
+      <c r="X325" s="7"/>
+      <c r="Y325" s="7"/>
+      <c r="Z325" s="7"/>
+      <c r="AA325" s="7"/>
+      <c r="AB325" s="7"/>
+      <c r="AC325" s="7"/>
+    </row>
+    <row r="326" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B326" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="228" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B228" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="230" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B230" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="231" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B231" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="233" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B233" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
-      <c r="L233" s="7"/>
-      <c r="M233" s="7"/>
-      <c r="N233" s="7"/>
-      <c r="O233" s="7"/>
-      <c r="P233" s="7"/>
-      <c r="Q233" s="7"/>
-      <c r="R233" s="7"/>
-      <c r="S233" s="7"/>
-      <c r="T233" s="7"/>
-      <c r="U233" s="7"/>
-      <c r="V233" s="7"/>
-      <c r="W233" s="7"/>
-      <c r="X233" s="7"/>
-      <c r="Y233" s="7"/>
-      <c r="Z233" s="7"/>
-      <c r="AA233" s="7"/>
-      <c r="AB233" s="7"/>
-      <c r="AC233" s="7"/>
-    </row>
-    <row r="234" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B234" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="7"/>
-      <c r="L234" s="7"/>
-      <c r="M234" s="7"/>
-      <c r="N234" s="7"/>
-      <c r="O234" s="7"/>
-      <c r="P234" s="7"/>
-      <c r="Q234" s="7"/>
-      <c r="R234" s="7"/>
-      <c r="S234" s="7"/>
-      <c r="T234" s="7"/>
-      <c r="U234" s="7"/>
-      <c r="V234" s="7"/>
-      <c r="W234" s="7"/>
-      <c r="X234" s="7"/>
-      <c r="Y234" s="7"/>
-      <c r="Z234" s="7"/>
-      <c r="AA234" s="7"/>
-      <c r="AB234" s="7"/>
-      <c r="AC234" s="7"/>
-    </row>
-    <row r="235" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B235" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
-      <c r="L235" s="7"/>
-      <c r="M235" s="7"/>
-      <c r="N235" s="7"/>
-      <c r="O235" s="7"/>
-      <c r="P235" s="7"/>
-      <c r="Q235" s="7"/>
-      <c r="R235" s="7"/>
-      <c r="S235" s="7"/>
-      <c r="T235" s="7"/>
-      <c r="U235" s="7"/>
-      <c r="V235" s="7"/>
-      <c r="W235" s="7"/>
-      <c r="X235" s="7"/>
-      <c r="Y235" s="7"/>
-      <c r="Z235" s="7"/>
-      <c r="AA235" s="7"/>
-      <c r="AB235" s="7"/>
-      <c r="AC235" s="7"/>
-    </row>
-    <row r="237" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B237" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="238" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B238" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="239" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B239" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="241" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B241" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="7"/>
-      <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
-      <c r="L241" s="7"/>
-      <c r="M241" s="7"/>
-      <c r="N241" s="7"/>
-      <c r="O241" s="7"/>
-      <c r="P241" s="7"/>
-      <c r="Q241" s="7"/>
-      <c r="R241" s="7"/>
-      <c r="S241" s="7"/>
-      <c r="T241" s="7"/>
-      <c r="U241" s="7"/>
-      <c r="V241" s="7"/>
-      <c r="W241" s="7"/>
-      <c r="X241" s="7"/>
-      <c r="Y241" s="7"/>
-      <c r="Z241" s="7"/>
-      <c r="AA241" s="7"/>
-      <c r="AB241" s="7"/>
-      <c r="AC241" s="7"/>
-    </row>
-    <row r="242" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B242" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C242" s="7"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="7"/>
-      <c r="J242" s="7"/>
-      <c r="K242" s="7"/>
-      <c r="L242" s="7"/>
-      <c r="M242" s="7"/>
-      <c r="N242" s="7"/>
-      <c r="O242" s="7"/>
-      <c r="P242" s="7"/>
-      <c r="Q242" s="7"/>
-      <c r="R242" s="7"/>
-      <c r="S242" s="7"/>
-      <c r="T242" s="7"/>
-      <c r="U242" s="7"/>
-      <c r="V242" s="7"/>
-      <c r="W242" s="7"/>
-      <c r="X242" s="7"/>
-      <c r="Y242" s="7"/>
-      <c r="Z242" s="7"/>
-      <c r="AA242" s="7"/>
-      <c r="AB242" s="7"/>
-      <c r="AC242" s="7"/>
-    </row>
-    <row r="243" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B243" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C243" s="7"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="7"/>
-      <c r="J243" s="7"/>
-      <c r="K243" s="7"/>
-      <c r="L243" s="7"/>
-      <c r="M243" s="7"/>
-      <c r="N243" s="7"/>
-      <c r="O243" s="7"/>
-      <c r="P243" s="7"/>
-      <c r="Q243" s="7"/>
-      <c r="R243" s="7"/>
-      <c r="S243" s="7"/>
-      <c r="T243" s="7"/>
-      <c r="U243" s="7"/>
-      <c r="V243" s="7"/>
-      <c r="W243" s="7"/>
-      <c r="X243" s="7"/>
-      <c r="Y243" s="7"/>
-      <c r="Z243" s="7"/>
-      <c r="AA243" s="7"/>
-      <c r="AB243" s="7"/>
-      <c r="AC243" s="7"/>
-    </row>
-    <row r="245" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B245" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="246" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B246" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="247" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B247" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="249" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B249" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="7"/>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
-      <c r="L249" s="7"/>
-      <c r="M249" s="7"/>
-      <c r="N249" s="7"/>
-      <c r="O249" s="7"/>
-      <c r="P249" s="7"/>
-      <c r="Q249" s="7"/>
-      <c r="R249" s="7"/>
-      <c r="S249" s="7"/>
-      <c r="T249" s="7"/>
-      <c r="U249" s="7"/>
-      <c r="V249" s="7"/>
-      <c r="W249" s="7"/>
-      <c r="X249" s="7"/>
-      <c r="Y249" s="7"/>
-      <c r="Z249" s="7"/>
-      <c r="AA249" s="7"/>
-      <c r="AB249" s="7"/>
-      <c r="AC249" s="7"/>
-    </row>
-    <row r="250" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B250" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
-      <c r="L250" s="7"/>
-      <c r="M250" s="7"/>
-      <c r="N250" s="7"/>
-      <c r="O250" s="7"/>
-      <c r="P250" s="7"/>
-      <c r="Q250" s="7"/>
-      <c r="R250" s="7"/>
-      <c r="S250" s="7"/>
-      <c r="T250" s="7"/>
-      <c r="U250" s="7"/>
-      <c r="V250" s="7"/>
-      <c r="W250" s="7"/>
-      <c r="X250" s="7"/>
-      <c r="Y250" s="7"/>
-      <c r="Z250" s="7"/>
-      <c r="AA250" s="7"/>
-      <c r="AB250" s="7"/>
-      <c r="AC250" s="7"/>
-    </row>
-    <row r="251" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B251" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
-      <c r="L251" s="7"/>
-      <c r="M251" s="7"/>
-      <c r="N251" s="7"/>
-      <c r="O251" s="7"/>
-      <c r="P251" s="7"/>
-      <c r="Q251" s="7"/>
-      <c r="R251" s="7"/>
-      <c r="S251" s="7"/>
-      <c r="T251" s="7"/>
-      <c r="U251" s="7"/>
-      <c r="V251" s="7"/>
-      <c r="W251" s="7"/>
-      <c r="X251" s="7"/>
-      <c r="Y251" s="7"/>
-      <c r="Z251" s="7"/>
-      <c r="AA251" s="7"/>
-      <c r="AB251" s="7"/>
-      <c r="AC251" s="7"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="7"/>
+      <c r="I326" s="7"/>
+      <c r="J326" s="7"/>
+      <c r="K326" s="7"/>
+      <c r="L326" s="7"/>
+      <c r="M326" s="7"/>
+      <c r="N326" s="7"/>
+      <c r="O326" s="7"/>
+      <c r="P326" s="7"/>
+      <c r="Q326" s="7"/>
+      <c r="R326" s="7"/>
+      <c r="S326" s="7"/>
+      <c r="T326" s="7"/>
+      <c r="U326" s="7"/>
+      <c r="V326" s="7"/>
+      <c r="W326" s="7"/>
+      <c r="X326" s="7"/>
+      <c r="Y326" s="7"/>
+      <c r="Z326" s="7"/>
+      <c r="AA326" s="7"/>
+      <c r="AB326" s="7"/>
+      <c r="AC326" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C219" r:id="rId1" location="using-quick-reply-introduction" xr:uid="{2BB7D2BD-F12B-4739-AB11-FEFFC7978E78}"/>
-    <hyperlink ref="B239" r:id="rId2" xr:uid="{F2E2792E-92A0-42BF-A7C3-C68C53CF7E98}"/>
-    <hyperlink ref="B247" r:id="rId3" xr:uid="{61A5479B-C9FC-4501-A6B6-B94F5A8C5A44}"/>
+    <hyperlink ref="C244" r:id="rId1" location="using-quick-reply-introduction" xr:uid="{2BB7D2BD-F12B-4739-AB11-FEFFC7978E78}"/>
+    <hyperlink ref="B299" r:id="rId2" xr:uid="{F2E2792E-92A0-42BF-A7C3-C68C53CF7E98}"/>
+    <hyperlink ref="B322" r:id="rId3" xr:uid="{61A5479B-C9FC-4501-A6B6-B94F5A8C5A44}"/>
+    <hyperlink ref="C197" r:id="rId4" location="flex-message" xr:uid="{42FC2CAE-70A0-4189-91FE-74AC6CB8514D}"/>
+    <hyperlink ref="C201" r:id="rId5" xr:uid="{618F35D2-CEDC-4C00-90CE-875321F816CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2698,11 +4080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3D0B4C-D133-42B0-8279-B15E10C3BAAB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
